--- a/results/final_data.xlsx
+++ b/results/final_data.xlsx
@@ -1882,16 +1882,16 @@
         <v>35</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0167384894547231</v>
+        <v>0.0102670216019757</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0160053589248262</v>
+        <v>0.00789700647644855</v>
       </c>
       <c r="V2" t="n">
-        <v>-6.63279090230949</v>
+        <v>-7.15294413086724</v>
       </c>
       <c r="W2" t="n">
-        <v>1.88706267689138</v>
+        <v>1.71588991123992</v>
       </c>
       <c r="X2" t="n">
         <v>0.707106781186548</v>
@@ -2072,7 +2072,7 @@
         <v>1.37536947918758</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.707106781186547</v>
+        <v>-0.707106781186548</v>
       </c>
     </row>
     <row r="6">
@@ -2416,16 +2416,16 @@
         <v>35</v>
       </c>
       <c r="T11" t="n">
-        <v>0.018105993839361</v>
+        <v>0.0129770995966814</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0133279299290489</v>
+        <v>0.00784057271978506</v>
       </c>
       <c r="V11" t="n">
-        <v>-6.14255056833236</v>
+        <v>-6.50457587360518</v>
       </c>
       <c r="W11" t="n">
-        <v>1.17827199561739</v>
+        <v>0.988610666451843</v>
       </c>
       <c r="X11" t="n">
         <v>0.707106781186547</v>
@@ -5282,16 +5282,16 @@
         <v>35</v>
       </c>
       <c r="T62" t="n">
-        <v>0.00407621662147221</v>
+        <v>0.0013171679952092</v>
       </c>
       <c r="U62" t="n">
-        <v>0.00552285508714517</v>
+        <v>0.000280707210283627</v>
       </c>
       <c r="V62" t="n">
-        <v>-8.77660470212583</v>
+        <v>-9.58915546855142</v>
       </c>
       <c r="W62" t="n">
-        <v>1.64300892205097</v>
+        <v>0.296285316537515</v>
       </c>
       <c r="X62" t="n">
         <v>-0.707106781186548</v>
@@ -5460,19 +5460,19 @@
         <v>35</v>
       </c>
       <c r="T65" t="n">
-        <v>20.4662241787708</v>
+        <v>17.2672276045381</v>
       </c>
       <c r="U65" t="n">
-        <v>6.52445881512949</v>
+        <v>1.56568507490029</v>
       </c>
       <c r="V65" t="n">
-        <v>4.30697528888536</v>
+        <v>4.10599127071653</v>
       </c>
       <c r="W65" t="n">
-        <v>0.416017994213727</v>
+        <v>0.131297387288181</v>
       </c>
       <c r="X65" t="n">
-        <v>0.707106781186547</v>
+        <v>0.707106781186548</v>
       </c>
     </row>
     <row r="66">
@@ -5816,19 +5816,19 @@
         <v>35</v>
       </c>
       <c r="T71" t="n">
-        <v>0.00247382634074389</v>
+        <v>0.0020999931499675</v>
       </c>
       <c r="U71" t="n">
-        <v>0.000847555624658196</v>
+        <v>0.000488894956180052</v>
       </c>
       <c r="V71" t="n">
-        <v>-8.71972834195143</v>
+        <v>-8.91975054624968</v>
       </c>
       <c r="W71" t="n">
-        <v>0.477237563716954</v>
+        <v>0.318716559123859</v>
       </c>
       <c r="X71" t="n">
-        <v>-0.707106781186547</v>
+        <v>-0.707106781186548</v>
       </c>
     </row>
     <row r="72">
@@ -8010,16 +8010,16 @@
         <v>35</v>
       </c>
       <c r="T110" t="n">
-        <v>1.64128728321524</v>
+        <v>1.32083933541148</v>
       </c>
       <c r="U110" t="n">
-        <v>0.964637732023042</v>
+        <v>0.626901737249084</v>
       </c>
       <c r="V110" t="n">
-        <v>0.516647976581633</v>
+        <v>0.280464880269709</v>
       </c>
       <c r="W110" t="n">
-        <v>0.820636361254811</v>
+        <v>0.650720089124936</v>
       </c>
       <c r="X110" t="n">
         <v>0.707106781186547</v>
@@ -8188,19 +8188,19 @@
         <v>35</v>
       </c>
       <c r="T113" t="n">
-        <v>0.00149912160621358</v>
+        <v>0.000966024006916572</v>
       </c>
       <c r="U113" t="n">
-        <v>0.00135178500204272</v>
+        <v>0.000390775494194323</v>
       </c>
       <c r="V113" t="n">
-        <v>-9.78568080735919</v>
+        <v>-10.1612963641669</v>
       </c>
       <c r="W113" t="n">
-        <v>1.17075710731477</v>
+        <v>0.809436474678719</v>
       </c>
       <c r="X113" t="n">
-        <v>-0.707106781186547</v>
+        <v>-0.707106781186549</v>
       </c>
     </row>
     <row r="114">
@@ -8556,7 +8556,7 @@
         <v>0.648877855108425</v>
       </c>
       <c r="X119" t="n">
-        <v>-0.707106781186547</v>
+        <v>-0.707106781186548</v>
       </c>
     </row>
     <row r="120">
@@ -12094,7 +12094,7 @@
         <v>0.503460662324834</v>
       </c>
       <c r="X182" t="n">
-        <v>-0.707106781186548</v>
+        <v>-0.707106781186547</v>
       </c>
     </row>
     <row r="183">
@@ -12260,19 +12260,19 @@
         <v>96</v>
       </c>
       <c r="T185" t="n">
-        <v>0.0026774270122709</v>
+        <v>0.00200584900885836</v>
       </c>
       <c r="U185" t="n">
-        <v>0.00179048529077087</v>
+        <v>0.00079036027264583</v>
       </c>
       <c r="V185" t="n">
-        <v>-8.7570087592981</v>
+        <v>-9.03393956549293</v>
       </c>
       <c r="W185" t="n">
-        <v>0.804340391050142</v>
+        <v>0.483243515420022</v>
       </c>
       <c r="X185" t="n">
-        <v>0.707106781186547</v>
+        <v>0.707106781186546</v>
       </c>
     </row>
     <row r="186">
@@ -12616,19 +12616,19 @@
         <v>35</v>
       </c>
       <c r="T191" t="n">
-        <v>0.163883075479334</v>
+        <v>0.137658741340746</v>
       </c>
       <c r="U191" t="n">
-        <v>0.0684505743836722</v>
+        <v>0.0264382990985812</v>
       </c>
       <c r="V191" t="n">
-        <v>-2.69347787925907</v>
+        <v>-2.87993546921415</v>
       </c>
       <c r="W191" t="n">
-        <v>0.510709756751113</v>
+        <v>0.255504057036381</v>
       </c>
       <c r="X191" t="n">
-        <v>0.707106781186548</v>
+        <v>0.707106781186547</v>
       </c>
     </row>
     <row r="192">
@@ -16154,19 +16154,19 @@
         <v>35</v>
       </c>
       <c r="T254" t="n">
-        <v>0.834090594098495</v>
+        <v>0.721839568420909</v>
       </c>
       <c r="U254" t="n">
-        <v>0.335491215928577</v>
+        <v>0.214920332248994</v>
       </c>
       <c r="V254" t="n">
-        <v>-0.351274183826199</v>
+        <v>-0.517653544690019</v>
       </c>
       <c r="W254" t="n">
-        <v>0.546196969438374</v>
+        <v>0.406568842717543</v>
       </c>
       <c r="X254" t="n">
-        <v>0.707106781186547</v>
+        <v>0.707106781186548</v>
       </c>
     </row>
     <row r="255">
@@ -16332,19 +16332,19 @@
         <v>96</v>
       </c>
       <c r="T257" t="n">
-        <v>0.00137977687594278</v>
+        <v>0.000923670413872429</v>
       </c>
       <c r="U257" t="n">
-        <v>0.0012144076102375</v>
+        <v>0.000532197349848699</v>
       </c>
       <c r="V257" t="n">
-        <v>-9.89093268010822</v>
+        <v>-10.250355462817</v>
       </c>
       <c r="W257" t="n">
-        <v>1.11378289596046</v>
+        <v>0.762728587828998</v>
       </c>
       <c r="X257" t="n">
-        <v>-0.707106781186547</v>
+        <v>-0.707106781186549</v>
       </c>
     </row>
     <row r="258">
@@ -20416,7 +20416,7 @@
         <v>0.431359071131973</v>
       </c>
       <c r="X329" t="n">
-        <v>0.707106781186547</v>
+        <v>0.707106781186546</v>
       </c>
     </row>
     <row r="330">
